--- a/src/main/resources/data/ErrorFiles/dementia_Niguarda_v3.xlsx
+++ b/src/main/resources/data/ErrorFiles/dementia_Niguarda_v3.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Patient ID</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/ID_UNI_PAZIENTE</t>
+    <t xml:space="preserve">/dementia/ID_UNI_PAZIENTE</t>
   </si>
   <si>
     <t xml:space="preserve">SESSO</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/ID_UNI_NOSOLOGICO</t>
+    <t xml:space="preserve">/dementia/ID_UNI_NOSOLOGICO</t>
   </si>
   <si>
     <t xml:space="preserve">[DATA_INIZIO – DATA_NASCITA keep only years], [DATA_INIZIO-DATA_NASCITA keep only months left], [(DATA_INIZIO-DATA_NASCITA) corresponds to one of the groups: {“-50y”},{”50-59y”},{”60-69y”},{”70-79y”},{”+80y”}]</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">Hospital treatment code (ICD9) for the MRI</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/treatment/CODICE_PRESTAZIONE_ICD9</t>
+    <t xml:space="preserve">/dementia/treatment/CODICE_PRESTAZIONE_ICD9</t>
   </si>
   <si>
     <t xml:space="preserve">HANDEDNESS</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Years of Education</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/demographics/EDUCATION</t>
+    <t xml:space="preserve">/dementia/demographics/EDUCATION</t>
   </si>
   <si>
     <t xml:space="preserve">PROFILO_CLINICO</t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">DIAGNOSIS CATEGORY</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/PROFILO_CLINICO</t>
+    <t xml:space="preserve">/dementia/diagnosis/PROFILO_CLINICO</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE_SCORE</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">MMSE subscore for orientation to time</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/ORIENTATION_TO_TIME</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/ORIENTATION_TO_TIME</t>
   </si>
   <si>
     <t xml:space="preserve">ORIENTATION_TO_PLACE</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">MMSE subscore for orientation to place</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/ORIENTATION_TO_PLACE</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/ORIENTATION_TO_PLACE</t>
   </si>
   <si>
     <t xml:space="preserve">REGISTRATION</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">MMSE subscore for registration</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/REGISTRATION</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/REGISTRATION</t>
   </si>
   <si>
     <t xml:space="preserve">CALCULATION</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">MMSE subscore for calculation</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/CALCULATION</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/CALCULATION</t>
   </si>
   <si>
     <t xml:space="preserve">ATTENTION</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">MMSE subscore for attention</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/ATTENTION</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/ATTENTION</t>
   </si>
   <si>
     <t xml:space="preserve">RECALL</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">MMSE subscore for recall</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/RECALL</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/RECALL</t>
   </si>
   <si>
     <t xml:space="preserve">LANGUAGE</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">MMSE subscore for language</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/LANGUAGE</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/LANGUAGE</t>
   </si>
   <si>
     <t xml:space="preserve">REPETITION</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">MMSE subscore for repetition</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/REPETITION</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/REPETITION</t>
   </si>
   <si>
     <t xml:space="preserve">STAGE_COMMANDS_3  </t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">MMSE subscore for complex commands</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/STAGE_COMMANDS_3</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/STAGE_COMMANDS_3</t>
   </si>
   <si>
     <t xml:space="preserve">READ_AND_OBEY</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">MMSE subscore for read and obey</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/READ_AND_OBEY</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/READ_AND_OBEY</t>
   </si>
   <si>
     <t xml:space="preserve">SENTENCE</t>
@@ -286,7 +286,7 @@
     <t xml:space="preserve">MMSE subscore for sentence</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/SENTENCE</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/SENTENCE</t>
   </si>
   <si>
     <t xml:space="preserve">PRAXIA</t>
@@ -295,7 +295,7 @@
     <t xml:space="preserve">MMSE subscore for praxia</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/neuropsychology/mmse/PRAXIA</t>
+    <t xml:space="preserve">/dementia/neuropsychology/mmse/PRAXIA</t>
   </si>
   <si>
     <t xml:space="preserve">Episode</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Clinical episode start date</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/treatment/DATA_INIZIO</t>
+    <t xml:space="preserve">/dementia/treatment/DATA_INIZIO</t>
   </si>
   <si>
     <t xml:space="preserve">DATA_FINE</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">Clinical episode end date</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/treatment/DATA_FINE</t>
+    <t xml:space="preserve">/dementia/treatment/DATA_FINE</t>
   </si>
   <si>
     <t xml:space="preserve">REGIME</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Way to perform hospitalization ( 1 =inpatient surgery; 2=day hospital; 4= MAC; 5= anticipato).</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/treatment/REGIME</t>
+    <t xml:space="preserve">/dementia/treatment/REGIME</t>
   </si>
   <si>
     <t xml:space="preserve">REPARTO_INIZIO</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">Start ward (only for inpatients)</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/treatment/REPARTO_INIZIO</t>
+    <t xml:space="preserve">/dementia/treatment/REPARTO_INIZIO</t>
   </si>
   <si>
     <t xml:space="preserve">REPARTO_FINE</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">End ward (only for inpatients)</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/treatment/REPARTO_FINE</t>
+    <t xml:space="preserve">/dementia/treatment/REPARTO_FINE</t>
   </si>
   <si>
     <t xml:space="preserve">COD_DIAGNOSI_ICD9</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">Diagnosis only from emergency episode</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/COD_DIAGNOSI_ICD9</t>
+    <t xml:space="preserve">/dementia/diagnosis/COD_DIAGNOSI_ICD9</t>
   </si>
   <si>
     <t xml:space="preserve">CODICE_DIAGNOSI_1_ICD9</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">First diagnosis code from inpatient episode</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/diagnosis/</t>
+    <t xml:space="preserve">/dementia/diagnosis/</t>
   </si>
   <si>
     <t xml:space="preserve">CODICE_DIAGNOSI_2_ICD9</t>
@@ -406,7 +406,7 @@
     <t xml:space="preserve">Episode type (“I” = inpatient; “U” =emergency; “E” = outpatient)</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/treatment/</t>
+    <t xml:space="preserve">/dementia/treatment/</t>
   </si>
   <si>
     <t xml:space="preserve">Imaging</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve">PACS Accession number for the MRI</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/ACCESSION_NUMBER</t>
+    <t xml:space="preserve">/dementia/ACCESSION_NUMBER</t>
   </si>
   <si>
     <t xml:space="preserve">DATA_ESAME</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">Exam date (date of the MRI)</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/DATA_ESAME</t>
+    <t xml:space="preserve">/dementia/DATA_ESAME</t>
   </si>
   <si>
     <t xml:space="preserve">RICHIEDENTE</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">Ward applying the exam. “3760 Neurologia Degenza” is Neuroscience ward. Please convert every other value to null or blank.</t>
   </si>
   <si>
-    <t xml:space="preserve">/root/RICHIEDENTE</t>
+    <t xml:space="preserve">/dementia/RICHIEDENTE</t>
   </si>
 </sst>
 </file>
@@ -618,14 +618,11 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O15" activeCellId="4" sqref="J2 J4:J6 J8:J9 J11:J38 O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
